--- a/testData/126邮箱发送邮件.xlsx
+++ b/testData/126邮箱发送邮件.xlsx
@@ -23,7 +23,7 @@
     <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
     <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -53,6 +53,13 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color rgb="FFFF3030"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -67,13 +74,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -81,45 +81,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -150,6 +112,28 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -172,8 +156,31 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -196,7 +203,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -230,7 +237,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,19 +369,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,37 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,31 +411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,80 +421,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -493,6 +500,19 @@
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
@@ -538,6 +558,19 @@
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
@@ -675,6 +708,15 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,39 +732,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,8 +765,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,149 +815,149 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="22" fillId="18" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="32" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="25" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="21" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="22" fillId="21" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="14" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="22" fillId="23" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="33" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="21" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="20" fillId="17" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="22" fillId="17" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="18" fillId="7" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="24" fillId="0" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -968,7 +1001,8 @@
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -980,53 +1014,38 @@
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="13" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1037,29 +1056,59 @@
     <xf applyAlignment="1" borderId="14" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="16" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1411,119 +1460,119 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="42" width="9"/>
-    <col customWidth="1" max="2" min="2" style="42" width="20.375"/>
-    <col customWidth="1" max="3" min="3" style="42" width="42.75"/>
-    <col customWidth="1" max="4" min="4" style="42" width="12.625"/>
-    <col customWidth="1" max="5" min="5" style="42" width="9"/>
-    <col customWidth="1" max="6" min="6" style="42" width="38.125"/>
-    <col customWidth="1" max="16376" min="7" style="42" width="9"/>
-    <col customWidth="1" max="16384" min="16377" style="42" width="11"/>
+    <col customWidth="1" max="1" min="1" style="47" width="9"/>
+    <col customWidth="1" max="2" min="2" style="47" width="20.375"/>
+    <col customWidth="1" max="3" min="3" style="47" width="42.75"/>
+    <col customWidth="1" max="4" min="4" style="47" width="12.625"/>
+    <col customWidth="1" max="5" min="5" style="47" width="9"/>
+    <col customWidth="1" max="6" min="6" style="47" width="38.125"/>
+    <col customWidth="1" max="16376" min="7" style="47" width="9"/>
+    <col customWidth="1" max="16384" min="16377" style="47" width="11"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="43">
-      <c r="A1" s="24" t="inlineStr">
+    <row customHeight="1" ht="30" r="1" s="48">
+      <c r="A1" s="29" t="inlineStr">
         <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="B1" s="25" t="inlineStr">
+      <c r="B1" s="30" t="inlineStr">
         <is>
           <t>用例名称</t>
         </is>
       </c>
-      <c r="C1" s="25" t="inlineStr">
+      <c r="C1" s="30" t="inlineStr">
         <is>
           <t>用例描述</t>
         </is>
       </c>
-      <c r="D1" s="25" t="inlineStr">
+      <c r="D1" s="30" t="inlineStr">
         <is>
           <t>步骤sheet名</t>
         </is>
       </c>
-      <c r="E1" s="25" t="inlineStr">
+      <c r="E1" s="30" t="inlineStr">
         <is>
           <t>是否执行</t>
         </is>
       </c>
-      <c r="F1" s="25" t="inlineStr">
+      <c r="F1" s="30" t="inlineStr">
         <is>
           <t>执行结束时间</t>
         </is>
       </c>
-      <c r="G1" s="39" t="inlineStr">
+      <c r="G1" s="44" t="inlineStr">
         <is>
           <t>结果</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" s="43">
-      <c r="A2" s="26" t="n">
+    <row customHeight="1" ht="30" r="2" s="48">
+      <c r="A2" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="inlineStr">
+      <c r="B2" s="33" t="inlineStr">
         <is>
           <t>登录126邮箱</t>
         </is>
       </c>
-      <c r="C2" s="27" t="inlineStr">
+      <c r="C2" s="32" t="inlineStr">
         <is>
           <t>使用有效的账号登录126邮箱</t>
         </is>
       </c>
-      <c r="D2" s="28" t="inlineStr">
+      <c r="D2" s="33" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
       </c>
-      <c r="E2" s="28" t="inlineStr">
+      <c r="E2" s="33" t="inlineStr">
         <is>
           <t>n</t>
         </is>
       </c>
-      <c r="F2" s="28" t="inlineStr">
+      <c r="F2" s="33" t="inlineStr">
         <is>
           <t>2019-04-06 13:44:21</t>
         </is>
       </c>
-      <c r="G2" s="40" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="3" s="43">
-      <c r="A3" s="35" t="n">
+      <c r="G2" s="45" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="3" s="48">
+      <c r="A3" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="37" t="inlineStr">
+      <c r="B3" s="42" t="inlineStr">
         <is>
           <t>发送附带附件的邮箱</t>
         </is>
       </c>
-      <c r="C3" s="36" t="inlineStr">
+      <c r="C3" s="41" t="inlineStr">
         <is>
           <t>登录126邮箱后，发送一封带附件的邮件</t>
         </is>
       </c>
-      <c r="D3" s="37" t="inlineStr">
+      <c r="D3" s="42" t="inlineStr">
         <is>
           <t>发邮件</t>
         </is>
       </c>
-      <c r="E3" s="37" t="inlineStr">
+      <c r="E3" s="42" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="F3" s="37" t="inlineStr">
-        <is>
-          <t>2019-04-19 18:10:37</t>
-        </is>
-      </c>
-      <c r="G3" s="41" t="n"/>
+      <c r="F3" s="42" t="inlineStr">
+        <is>
+          <t>2019-04-22 11:44:20</t>
+        </is>
+      </c>
+      <c r="G3" s="46" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1537,10 +1586,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -1556,220 +1605,220 @@
     <col customWidth="1" max="16384" min="16380" style="1" width="11"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="43">
-      <c r="A1" s="24" t="inlineStr">
+    <row customHeight="1" ht="30" r="1" s="48">
+      <c r="A1" s="29" t="inlineStr">
         <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="B1" s="25" t="inlineStr">
+      <c r="B1" s="30" t="inlineStr">
         <is>
           <t>测试步骤描述</t>
         </is>
       </c>
-      <c r="C1" s="25" t="inlineStr">
+      <c r="C1" s="30" t="inlineStr">
         <is>
           <t>关键字</t>
         </is>
       </c>
-      <c r="D1" s="25" t="inlineStr">
+      <c r="D1" s="30" t="inlineStr">
         <is>
           <t>操作元素的定位方式</t>
         </is>
       </c>
-      <c r="E1" s="25" t="inlineStr">
+      <c r="E1" s="30" t="inlineStr">
         <is>
           <t>操作元素的定位表达式</t>
         </is>
       </c>
-      <c r="F1" s="25" t="inlineStr">
+      <c r="F1" s="30" t="inlineStr">
         <is>
           <t>操作值</t>
         </is>
       </c>
-      <c r="G1" s="25" t="inlineStr">
+      <c r="G1" s="30" t="inlineStr">
         <is>
           <t>测试执行时间</t>
         </is>
       </c>
-      <c r="H1" s="25" t="inlineStr">
+      <c r="H1" s="30" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
-      <c r="I1" s="25" t="inlineStr">
+      <c r="I1" s="30" t="inlineStr">
         <is>
           <t>错误信息</t>
         </is>
       </c>
-      <c r="J1" s="39" t="inlineStr">
+      <c r="J1" s="44" t="inlineStr">
         <is>
           <t>错误截图</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" s="43">
-      <c r="A2" s="26" t="n">
+    <row customHeight="1" ht="30" r="2" s="48">
+      <c r="A2" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="inlineStr">
+      <c r="B2" s="32" t="inlineStr">
         <is>
           <t>打开浏览器</t>
         </is>
       </c>
-      <c r="C2" s="28" t="inlineStr">
+      <c r="C2" s="33" t="inlineStr">
         <is>
           <t>open_browser</t>
         </is>
       </c>
-      <c r="D2" s="28" t="n"/>
-      <c r="E2" s="27" t="n"/>
-      <c r="F2" s="28" t="inlineStr">
+      <c r="D2" s="33" t="n"/>
+      <c r="E2" s="32" t="n"/>
+      <c r="F2" s="33" t="inlineStr">
         <is>
           <t>chrome</t>
         </is>
       </c>
-      <c r="G2" s="28" t="inlineStr">
+      <c r="G2" s="33" t="inlineStr">
         <is>
           <t>2019-04-06 13:43:01</t>
         </is>
       </c>
-      <c r="H2" s="29" t="inlineStr">
+      <c r="H2" s="34" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I2" s="28" t="inlineStr"/>
-      <c r="J2" s="40" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="3" s="43">
-      <c r="A3" s="26" t="n">
+      <c r="I2" s="33" t="inlineStr"/>
+      <c r="J2" s="45" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="3" s="48">
+      <c r="A3" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="inlineStr">
+      <c r="B3" s="32" t="inlineStr">
         <is>
           <t>访问被测试网址https://www.126.com</t>
         </is>
       </c>
-      <c r="C3" s="28" t="inlineStr">
+      <c r="C3" s="33" t="inlineStr">
         <is>
           <t>visit_url</t>
         </is>
       </c>
-      <c r="D3" s="28" t="n"/>
-      <c r="E3" s="27" t="n"/>
+      <c r="D3" s="33" t="n"/>
+      <c r="E3" s="32" t="n"/>
       <c r="F3" s="0" t="inlineStr">
         <is>
           <t>https://www.126.com</t>
         </is>
       </c>
-      <c r="G3" s="28" t="inlineStr">
+      <c r="G3" s="33" t="inlineStr">
         <is>
           <t>2019-04-06 13:43:07</t>
         </is>
       </c>
-      <c r="H3" s="29" t="inlineStr">
+      <c r="H3" s="34" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I3" s="28" t="inlineStr"/>
-      <c r="J3" s="40" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="4" s="43">
-      <c r="A4" s="26" t="n">
+      <c r="I3" s="33" t="inlineStr"/>
+      <c r="J3" s="45" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="4" s="48">
+      <c r="A4" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="inlineStr">
+      <c r="B4" s="32" t="inlineStr">
         <is>
           <t>最大化</t>
         </is>
       </c>
-      <c r="C4" s="28" t="inlineStr">
+      <c r="C4" s="33" t="inlineStr">
         <is>
           <t>maximize_brower</t>
         </is>
       </c>
-      <c r="D4" s="30" t="n"/>
-      <c r="E4" s="27" t="n"/>
-      <c r="F4" s="28" t="n"/>
-      <c r="G4" s="28" t="inlineStr">
+      <c r="D4" s="35" t="n"/>
+      <c r="E4" s="32" t="n"/>
+      <c r="F4" s="33" t="n"/>
+      <c r="G4" s="33" t="inlineStr">
         <is>
           <t>2019-04-06 13:43:09</t>
         </is>
       </c>
-      <c r="H4" s="29" t="inlineStr">
+      <c r="H4" s="34" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I4" s="28" t="inlineStr"/>
-      <c r="J4" s="40" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="5" s="43">
-      <c r="A5" s="26" t="n">
+      <c r="I4" s="33" t="inlineStr"/>
+      <c r="J4" s="45" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="5" s="48">
+      <c r="A5" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="inlineStr">
+      <c r="B5" s="32" t="inlineStr">
         <is>
           <t>等待126邮箱登录主页加载完成</t>
         </is>
       </c>
-      <c r="C5" s="28" t="inlineStr">
+      <c r="C5" s="33" t="inlineStr">
         <is>
           <t>sleep</t>
         </is>
       </c>
-      <c r="D5" s="28" t="n"/>
-      <c r="E5" s="27" t="n"/>
-      <c r="F5" s="28" t="n">
+      <c r="D5" s="33" t="n"/>
+      <c r="E5" s="32" t="n"/>
+      <c r="F5" s="33" t="n">
         <v>5</v>
       </c>
-      <c r="G5" s="28" t="inlineStr">
+      <c r="G5" s="33" t="inlineStr">
         <is>
           <t>2019-04-06 13:43:14</t>
         </is>
       </c>
-      <c r="H5" s="29" t="inlineStr">
+      <c r="H5" s="34" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I5" s="28" t="inlineStr"/>
-      <c r="J5" s="40" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="6" s="43">
-      <c r="A6" s="26" t="n">
+      <c r="I5" s="33" t="inlineStr"/>
+      <c r="J5" s="45" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="6" s="48">
+      <c r="A6" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="inlineStr">
+      <c r="B6" s="32" t="inlineStr">
         <is>
           <t>断言当前活动页面源码中是否包好“126网易免费邮箱你的电子专业电子邮局</t>
         </is>
       </c>
-      <c r="C6" s="28" t="inlineStr">
+      <c r="C6" s="33" t="inlineStr">
         <is>
           <t>assert_string_in_pagesource</t>
         </is>
       </c>
-      <c r="D6" s="28" t="n"/>
-      <c r="E6" s="27" t="n"/>
-      <c r="F6" s="31" t="inlineStr">
+      <c r="D6" s="33" t="n"/>
+      <c r="E6" s="32" t="n"/>
+      <c r="F6" s="36" t="inlineStr">
         <is>
           <t>你的专业电子邮局</t>
         </is>
       </c>
-      <c r="G6" s="28" t="inlineStr">
+      <c r="G6" s="33" t="inlineStr">
         <is>
           <t>2019-04-06 13:43:14</t>
         </is>
       </c>
-      <c r="H6" s="32" t="inlineStr">
+      <c r="H6" s="37" t="inlineStr">
         <is>
           <t>faile</t>
         </is>
       </c>
-      <c r="I6" s="28" t="inlineStr">
+      <c r="I6" s="33" t="inlineStr">
         <is>
           <t>Traceback (most recent call last):
   File "G:\KeyWordFromeWork\testScripts\TestSendMailWithAttachment.py", line 295, in TestSendMailWithAttachment
@@ -1782,48 +1831,48 @@
 AssertionError:  你的专业电子邮局  not foud in page source!</t>
         </is>
       </c>
-      <c r="J6" s="40" t="inlineStr">
+      <c r="J6" s="45" t="inlineStr">
         <is>
           <t>G:\KeyWordFromeWork\exceptionpicutres\2019-4-6\13-43-14-582683.Png</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="45" r="7" s="43">
-      <c r="A7" s="26" t="n">
+    <row customHeight="1" ht="45" r="7" s="48">
+      <c r="A7" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="inlineStr">
+      <c r="B7" s="32" t="inlineStr">
         <is>
           <t>显示等待ID属性值为x-URS-iframede frame的框出现，然后切换进入该frame框中</t>
         </is>
       </c>
-      <c r="C7" s="33" t="inlineStr">
+      <c r="C7" s="38" t="inlineStr">
         <is>
           <t>waitFrameToBeAvailableAndSwitchToIt</t>
         </is>
       </c>
-      <c r="D7" s="28" t="inlineStr">
+      <c r="D7" s="33" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E7" s="34" t="inlineStr">
+      <c r="E7" s="39" t="inlineStr">
         <is>
           <t>//iframe[contains(@id,'x-URS-iframe')]</t>
         </is>
       </c>
-      <c r="F7" s="28" t="n"/>
-      <c r="G7" s="28" t="inlineStr">
+      <c r="F7" s="33" t="n"/>
+      <c r="G7" s="33" t="inlineStr">
         <is>
           <t>2019-04-06 13:43:45</t>
         </is>
       </c>
-      <c r="H7" s="32" t="inlineStr">
+      <c r="H7" s="37" t="inlineStr">
         <is>
           <t>faile</t>
         </is>
       </c>
-      <c r="I7" s="28" t="inlineStr">
+      <c r="I7" s="33" t="inlineStr">
         <is>
           <t>Traceback (most recent call last):
   File "G:\KeyWordFromeWork\testScripts\TestSendMailWithAttachment.py", line 295, in TestSendMailWithAttachment
@@ -1842,52 +1891,52 @@
 selenium.common.exceptions.TimeoutException: Message:</t>
         </is>
       </c>
-      <c r="J7" s="40" t="inlineStr">
+      <c r="J7" s="45" t="inlineStr">
         <is>
           <t>G:\KeyWordFromeWork\exceptionpicutres\2019-4-6\13-43-45-556676.Png</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="8" s="43">
-      <c r="A8" s="26" t="n">
+    <row customHeight="1" ht="30" r="8" s="48">
+      <c r="A8" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="inlineStr">
+      <c r="B8" s="32" t="inlineStr">
         <is>
           <t>输入登录用户名</t>
         </is>
       </c>
-      <c r="C8" s="28" t="inlineStr">
+      <c r="C8" s="33" t="inlineStr">
         <is>
           <t>inpu_string</t>
         </is>
       </c>
-      <c r="D8" s="28" t="inlineStr">
+      <c r="D8" s="33" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E8" s="27" t="inlineStr">
+      <c r="E8" s="32" t="inlineStr">
         <is>
           <t>//input[@name='email']</t>
         </is>
       </c>
-      <c r="F8" s="28" t="inlineStr">
+      <c r="F8" s="33" t="inlineStr">
         <is>
           <t>sunsmileak007</t>
         </is>
       </c>
-      <c r="G8" s="28" t="inlineStr">
+      <c r="G8" s="33" t="inlineStr">
         <is>
           <t>2019-04-06 13:43:46</t>
         </is>
       </c>
-      <c r="H8" s="32" t="inlineStr">
+      <c r="H8" s="37" t="inlineStr">
         <is>
           <t>faile</t>
         </is>
       </c>
-      <c r="I8" s="28" t="inlineStr">
+      <c r="I8" s="33" t="inlineStr">
         <is>
           <t>Traceback (most recent call last):
   File "G:\KeyWordFromeWork\testScripts\TestSendMailWithAttachment.py", line 295, in TestSendMailWithAttachment
@@ -1896,52 +1945,52 @@
 NameError: name 'inpu_string' is not defined</t>
         </is>
       </c>
-      <c r="J8" s="40" t="inlineStr">
+      <c r="J8" s="45" t="inlineStr">
         <is>
           <t>G:\KeyWordFromeWork\exceptionpicutres\2019-4-6\13-43-46-059105.Png</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="9" s="43">
-      <c r="A9" s="26" t="n">
+    <row customHeight="1" ht="30" r="9" s="48">
+      <c r="A9" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="27" t="inlineStr">
+      <c r="B9" s="32" t="inlineStr">
         <is>
           <t>输入的登录密码</t>
         </is>
       </c>
-      <c r="C9" s="28" t="inlineStr">
+      <c r="C9" s="33" t="inlineStr">
         <is>
           <t>input_string</t>
         </is>
       </c>
-      <c r="D9" s="28" t="inlineStr">
+      <c r="D9" s="33" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E9" s="27" t="inlineStr">
+      <c r="E9" s="32" t="inlineStr">
         <is>
           <t>//input[@name='password']</t>
         </is>
       </c>
-      <c r="F9" s="28" t="inlineStr">
+      <c r="F9" s="33" t="inlineStr">
         <is>
           <t>wgwgwg0051</t>
         </is>
       </c>
-      <c r="G9" s="28" t="inlineStr">
+      <c r="G9" s="33" t="inlineStr">
         <is>
           <t>2019-04-06 13:44:17</t>
         </is>
       </c>
-      <c r="H9" s="32" t="inlineStr">
+      <c r="H9" s="37" t="inlineStr">
         <is>
           <t>faile</t>
         </is>
       </c>
-      <c r="I9" s="28" t="inlineStr">
+      <c r="I9" s="33" t="inlineStr">
         <is>
           <t>Traceback (most recent call last):
   File "G:\KeyWordFromeWork\testScripts\TestSendMailWithAttachment.py", line 295, in TestSendMailWithAttachment
@@ -1954,40 +2003,40 @@
 AttributeError: 'NoneType' object has no attribute 'send_keys'</t>
         </is>
       </c>
-      <c r="J9" s="40" t="inlineStr">
+      <c r="J9" s="45" t="inlineStr">
         <is>
           <t>G:\KeyWordFromeWork\exceptionpicutres\2019-4-6\13-44-16-814759.Png</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="10" s="43">
-      <c r="A10" s="26" t="n">
+    <row customHeight="1" ht="30" r="10" s="48">
+      <c r="A10" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="inlineStr">
+      <c r="B10" s="32" t="inlineStr">
         <is>
           <t>单击登录按钮</t>
         </is>
       </c>
-      <c r="C10" s="28" t="inlineStr">
+      <c r="C10" s="33" t="inlineStr">
         <is>
           <t>click</t>
         </is>
       </c>
-      <c r="D10" s="28" t="n"/>
-      <c r="E10" s="27" t="n"/>
-      <c r="F10" s="28" t="n"/>
-      <c r="G10" s="28" t="inlineStr">
+      <c r="D10" s="33" t="n"/>
+      <c r="E10" s="32" t="n"/>
+      <c r="F10" s="33" t="n"/>
+      <c r="G10" s="33" t="inlineStr">
         <is>
           <t>2019-04-06 13:44:17</t>
         </is>
       </c>
-      <c r="H10" s="32" t="inlineStr">
+      <c r="H10" s="37" t="inlineStr">
         <is>
           <t>faile</t>
         </is>
       </c>
-      <c r="I10" s="28" t="inlineStr">
+      <c r="I10" s="33" t="inlineStr">
         <is>
           <t>Traceback (most recent call last):
   File "G:\KeyWordFromeWork\testScripts\TestSendMailWithAttachment.py", line 295, in TestSendMailWithAttachment
@@ -1996,106 +2045,106 @@
 TypeError: click() missing 2 required positional arguments: 'locationType' and 'locatorExpression'</t>
         </is>
       </c>
-      <c r="J10" s="40" t="inlineStr">
+      <c r="J10" s="45" t="inlineStr">
         <is>
           <t>G:\KeyWordFromeWork\exceptionpicutres\2019-4-6\13-44-17-362317.Png</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="11" s="43">
-      <c r="A11" s="26" t="n">
+    <row customHeight="1" ht="30" r="11" s="48">
+      <c r="A11" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="27" t="inlineStr">
+      <c r="B11" s="32" t="inlineStr">
         <is>
           <t>等待</t>
         </is>
       </c>
-      <c r="C11" s="28" t="inlineStr">
+      <c r="C11" s="33" t="inlineStr">
         <is>
           <t>sleep</t>
         </is>
       </c>
-      <c r="D11" s="28" t="n"/>
-      <c r="E11" s="27" t="n"/>
-      <c r="F11" s="28" t="n">
+      <c r="D11" s="33" t="n"/>
+      <c r="E11" s="32" t="n"/>
+      <c r="F11" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="28" t="inlineStr">
+      <c r="G11" s="33" t="inlineStr">
         <is>
           <t>2019-04-06 13:44:20</t>
         </is>
       </c>
-      <c r="H11" s="29" t="inlineStr">
+      <c r="H11" s="34" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I11" s="28" t="inlineStr"/>
-      <c r="J11" s="40" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="12" s="43">
-      <c r="A12" s="26" t="n">
+      <c r="I11" s="33" t="inlineStr"/>
+      <c r="J11" s="45" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="12" s="48">
+      <c r="A12" s="31" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="27" t="inlineStr">
+      <c r="B12" s="32" t="inlineStr">
         <is>
           <t>切回默认会话体</t>
         </is>
       </c>
-      <c r="C12" s="28" t="inlineStr">
+      <c r="C12" s="33" t="inlineStr">
         <is>
           <t>switch_to_default_content</t>
         </is>
       </c>
-      <c r="D12" s="28" t="n"/>
-      <c r="E12" s="27" t="n"/>
-      <c r="F12" s="28" t="n"/>
-      <c r="G12" s="28" t="inlineStr">
+      <c r="D12" s="33" t="n"/>
+      <c r="E12" s="32" t="n"/>
+      <c r="F12" s="33" t="n"/>
+      <c r="G12" s="33" t="inlineStr">
         <is>
           <t>2019-04-06 13:44:21</t>
         </is>
       </c>
-      <c r="H12" s="29" t="inlineStr">
+      <c r="H12" s="34" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I12" s="28" t="inlineStr"/>
-      <c r="J12" s="40" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="13" s="43">
-      <c r="A13" s="35" t="n">
+      <c r="I12" s="33" t="inlineStr"/>
+      <c r="J12" s="45" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="13" s="48">
+      <c r="A13" s="40" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="36" t="inlineStr">
+      <c r="B13" s="41" t="inlineStr">
         <is>
           <t>断言登录成功后的页面标题是否包含“网易邮箱”</t>
         </is>
       </c>
-      <c r="C13" s="37" t="inlineStr">
+      <c r="C13" s="42" t="inlineStr">
         <is>
           <t>assert_title</t>
         </is>
       </c>
-      <c r="D13" s="37" t="n"/>
-      <c r="E13" s="36" t="n"/>
-      <c r="F13" s="37" t="inlineStr">
+      <c r="D13" s="42" t="n"/>
+      <c r="E13" s="41" t="n"/>
+      <c r="F13" s="42" t="inlineStr">
         <is>
           <t>网易邮箱</t>
         </is>
       </c>
-      <c r="G13" s="37" t="inlineStr">
+      <c r="G13" s="42" t="inlineStr">
         <is>
           <t>2019-04-06 13:44:21</t>
         </is>
       </c>
-      <c r="H13" s="38" t="inlineStr">
+      <c r="H13" s="43" t="inlineStr">
         <is>
           <t>faile</t>
         </is>
       </c>
-      <c r="I13" s="37" t="inlineStr">
+      <c r="I13" s="42" t="inlineStr">
         <is>
           <t>Traceback (most recent call last):
   File "G:\KeyWordFromeWork\testScripts\TestSendMailWithAttachment.py", line 295, in TestSendMailWithAttachment
@@ -2108,9 +2157,69 @@
 AssertionError:  网易邮箱  not found in title!</t>
         </is>
       </c>
-      <c r="J13" s="41" t="inlineStr">
+      <c r="J13" s="46" t="inlineStr">
         <is>
           <t>G:\KeyWordFromeWork\exceptionpicutres\2019-4-6\13-44-21-203493.Png</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="17" s="48">
+      <c r="A17" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>显示等待附件上传完毕</t>
+        </is>
+      </c>
+      <c r="C17" s="14" t="inlineStr">
+        <is>
+          <t>waitVisibilityOfElementLocated</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>//span[text()='上传完成']</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="7" t="inlineStr">
+        <is>
+          <t>2019-04-22 09:12:16</t>
+        </is>
+      </c>
+      <c r="H17" s="16" t="inlineStr">
+        <is>
+          <t>faile</t>
+        </is>
+      </c>
+      <c r="I17" s="26" t="inlineStr">
+        <is>
+          <t>Traceback (most recent call last):
+  File "G:\KeyWordFromeWork\testScripts\TestSendMailWithAttachment.py", line 296, in TestSendMailWithAttachment
+    eval(expressionStr)
+  File "&lt;string&gt;", line 1, in &lt;module&gt;
+  File "G:\KeyWordFromeWork\action\PageAction.py", line 290, in waitVisibilityOfElementLocated
+    raise e
+  File "G:\KeyWordFromeWork\action\PageAction.py", line 288, in waitVisibilityOfElementLocated
+    waitUtil.visibilityOfElementLocated(locationType, locatorExprexxion)
+  File "G:\KeyWordFromeWork\util\WaitUtil.py", line 82, in visibilityOfElementLocated
+    raise e
+  File "G:\KeyWordFromeWork\util\WaitUtil.py", line 80, in visibilityOfElementLocated
+    EC.visibility_of_element_located((self.locationTypeDict[locationType.lower()],locatorExpression )))
+  File "G:\py\pyanzhuagn\lib\site-packages\selenium\webdriver\support\wait.py", line 80, in until
+    raise TimeoutException(message, screen, stacktrace)
+selenium.common.exceptions.TimeoutException: Message:</t>
+        </is>
+      </c>
+      <c r="J17" s="25" t="inlineStr">
+        <is>
+          <t>G:\KeyWordFromeWork\exceptionpicutres\2019-4-22\09-12-15-897728.Png</t>
         </is>
       </c>
     </row>
@@ -2126,10 +2235,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -2146,7 +2255,7 @@
     <col customWidth="1" max="16384" min="16376" style="1" width="11"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="43">
+    <row customHeight="1" ht="30" r="1" s="48">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>序号</t>
@@ -2192,13 +2301,13 @@
           <t>错误信息</t>
         </is>
       </c>
-      <c r="J1" s="19" t="inlineStr">
+      <c r="J1" s="23" t="inlineStr">
         <is>
           <t>错误截图</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="42" r="2" s="43">
+    <row customHeight="1" ht="42" r="2" s="48">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
@@ -2221,18 +2330,18 @@
       </c>
       <c r="G2" s="8" t="inlineStr">
         <is>
-          <t>2019-04-19 18:07:54</t>
-        </is>
-      </c>
-      <c r="H2" s="44" t="inlineStr">
+          <t>2019-04-22 11:43:30</t>
+        </is>
+      </c>
+      <c r="H2" s="49" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
       <c r="I2" s="8" t="inlineStr"/>
-      <c r="J2" s="20" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="3" s="43">
+      <c r="J2" s="24" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="3" s="48">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
@@ -2255,18 +2364,18 @@
       </c>
       <c r="G3" s="7" t="inlineStr">
         <is>
-          <t>2019-04-19 18:08:07</t>
-        </is>
-      </c>
-      <c r="H3" s="44" t="inlineStr">
+          <t>2019-04-22 11:43:41</t>
+        </is>
+      </c>
+      <c r="H3" s="49" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
       <c r="I3" s="7" t="inlineStr"/>
-      <c r="J3" s="21" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="4" s="43">
+      <c r="J3" s="25" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="4" s="48">
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
@@ -2287,18 +2396,18 @@
       </c>
       <c r="G4" s="7" t="inlineStr">
         <is>
-          <t>2019-04-19 18:08:12</t>
-        </is>
-      </c>
-      <c r="H4" s="44" t="inlineStr">
+          <t>2019-04-22 11:43:47</t>
+        </is>
+      </c>
+      <c r="H4" s="49" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
       <c r="I4" s="7" t="inlineStr"/>
-      <c r="J4" s="21" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="33" r="5" s="43">
+      <c r="J4" s="25" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="33" r="5" s="48">
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
@@ -2325,18 +2434,18 @@
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="7" t="inlineStr">
         <is>
-          <t>2019-04-19 18:08:12</t>
-        </is>
-      </c>
-      <c r="H5" s="44" t="inlineStr">
+          <t>2019-04-22 11:43:47</t>
+        </is>
+      </c>
+      <c r="H5" s="49" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
       <c r="I5" s="7" t="inlineStr"/>
-      <c r="J5" s="21" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="6" s="43">
+      <c r="J5" s="25" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="6" s="48">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
@@ -2363,18 +2472,18 @@
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="7" t="inlineStr">
         <is>
-          <t>2019-04-19 18:08:12</t>
-        </is>
-      </c>
-      <c r="H6" s="44" t="inlineStr">
+          <t>2019-04-22 11:43:47</t>
+        </is>
+      </c>
+      <c r="H6" s="49" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
       <c r="I6" s="7" t="inlineStr"/>
-      <c r="J6" s="21" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="7" s="43">
+      <c r="J6" s="25" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="7" s="48">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
@@ -2405,18 +2514,18 @@
       </c>
       <c r="G7" s="7" t="inlineStr">
         <is>
-          <t>2019-04-19 18:08:13</t>
-        </is>
-      </c>
-      <c r="H7" s="44" t="inlineStr">
+          <t>2019-04-22 11:43:48</t>
+        </is>
+      </c>
+      <c r="H7" s="49" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
       <c r="I7" s="7" t="inlineStr"/>
-      <c r="J7" s="21" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="8" s="43">
+      <c r="J7" s="25" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="8" s="48">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
@@ -2447,18 +2556,18 @@
       </c>
       <c r="G8" s="7" t="inlineStr">
         <is>
-          <t>2019-04-19 18:08:13</t>
-        </is>
-      </c>
-      <c r="H8" s="44" t="inlineStr">
+          <t>2019-04-22 11:43:48</t>
+        </is>
+      </c>
+      <c r="H8" s="49" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="21" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="9" s="43">
+      <c r="J8" s="25" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="9" s="48">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
@@ -2479,18 +2588,18 @@
       </c>
       <c r="G9" s="7" t="inlineStr">
         <is>
-          <t>2019-04-19 18:08:18</t>
-        </is>
-      </c>
-      <c r="H9" s="44" t="inlineStr">
+          <t>2019-04-22 11:43:53</t>
+        </is>
+      </c>
+      <c r="H9" s="49" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
       <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="21" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="10" s="43">
+      <c r="J9" s="25" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="10" s="48">
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
@@ -2517,18 +2626,18 @@
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="inlineStr">
         <is>
-          <t>2019-04-19 18:08:19</t>
-        </is>
-      </c>
-      <c r="H10" s="44" t="inlineStr">
+          <t>2019-04-22 11:43:53</t>
+        </is>
+      </c>
+      <c r="H10" s="49" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I10" s="22" t="inlineStr"/>
-      <c r="J10" s="21" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="11" s="43">
+      <c r="I10" s="26" t="inlineStr"/>
+      <c r="J10" s="25" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="11" s="48">
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
@@ -2551,492 +2660,504 @@
       </c>
       <c r="G11" s="7" t="inlineStr">
         <is>
-          <t>2019-04-19 18:08:21</t>
-        </is>
-      </c>
-      <c r="H11" s="44" t="inlineStr">
+          <t>2019-04-22 11:43:56</t>
+        </is>
+      </c>
+      <c r="H11" s="49" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
       <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="21" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="12" s="43">
+      <c r="J11" s="25" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="12" s="48">
       <c r="A12" s="5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="6" t="inlineStr">
         <is>
-          <t>显示等待附件上传完毕</t>
-        </is>
-      </c>
-      <c r="C12" s="14" t="inlineStr">
-        <is>
-          <t>waitVisibilityOfElementLocated</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
+          <t>休息</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="13" t="n"/>
+      <c r="F12" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="7" t="inlineStr">
+        <is>
+          <t>2019-04-22 11:43:59</t>
+        </is>
+      </c>
+      <c r="H12" s="49" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="25" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="13" s="48">
+      <c r="A13" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>模拟键盘回车键</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>press_enter_key</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="6" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="inlineStr">
+        <is>
+          <t>2019-04-22 11:43:59</t>
+        </is>
+      </c>
+      <c r="H13" s="49" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="25" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="14" s="48">
+      <c r="A14" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>休息</t>
+        </is>
+      </c>
+      <c r="C14" s="14" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="6" t="n"/>
+      <c r="F14" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="7" t="inlineStr">
+        <is>
+          <t>2019-04-22 11:44:02</t>
+        </is>
+      </c>
+      <c r="H14" s="49" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="I14" s="7" t="inlineStr"/>
+      <c r="J14" s="25" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="54" r="15" s="48">
+      <c r="A15" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>如果邮件正文frame框是可见，切换进该frame中</t>
+        </is>
+      </c>
+      <c r="C15" s="14" t="inlineStr">
+        <is>
+          <t>switch_to_frame</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>//span[text()='上传完成']</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-19 18:08:51</t>
-        </is>
-      </c>
-      <c r="H12" s="45" t="inlineStr">
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>//iframe[@tabindex="1"]</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="n"/>
+      <c r="G15" s="7" t="inlineStr">
+        <is>
+          <t>2019-04-22 11:44:03</t>
+        </is>
+      </c>
+      <c r="H15" s="49" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="I15" s="26" t="inlineStr"/>
+      <c r="J15" s="25" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="54" r="16" s="48">
+      <c r="A16" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>休息</t>
+        </is>
+      </c>
+      <c r="C16" s="14" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="10" t="n"/>
+      <c r="F16" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="7" t="inlineStr">
+        <is>
+          <t>2019-04-22 11:44:06</t>
+        </is>
+      </c>
+      <c r="H16" s="49" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="I16" s="26" t="inlineStr"/>
+      <c r="J16" s="25" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="17" s="48">
+      <c r="A17" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>//body[@class="nui-scroll"]</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="7" t="inlineStr">
+        <is>
+          <t>2019-04-22 11:44:06</t>
+        </is>
+      </c>
+      <c r="H17" s="49" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="I17" s="26" t="inlineStr"/>
+      <c r="J17" s="25" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="18" s="48">
+      <c r="A18" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>输入邮件正文</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>input_string</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>//body[@class="nui-scroll"]</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="inlineStr">
+        <is>
+          <t>红鲤鱼与绿鲤鱼</t>
+        </is>
+      </c>
+      <c r="G18" s="7" t="inlineStr">
+        <is>
+          <t>2019-04-22 11:44:06</t>
+        </is>
+      </c>
+      <c r="H18" s="49" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="I18" s="26" t="inlineStr"/>
+      <c r="J18" s="25" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="19" s="48">
+      <c r="A19" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>退出邮件正文的fraem</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>switch_to_default_content</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="6" t="n"/>
+      <c r="F19" s="7" t="n"/>
+      <c r="G19" s="7" t="inlineStr">
+        <is>
+          <t>2019-04-22 11:44:06</t>
+        </is>
+      </c>
+      <c r="H19" s="49" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="25" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="20" s="48">
+      <c r="A20" s="5" t="n"/>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>休息</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="D20" s="7" t="n"/>
+      <c r="E20" s="6" t="n"/>
+      <c r="F20" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" s="7" t="inlineStr">
+        <is>
+          <t>2019-04-22 11:44:10</t>
+        </is>
+      </c>
+      <c r="H20" s="49" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="I20" s="7" t="inlineStr"/>
+      <c r="J20" s="25" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="21" s="48">
+      <c r="A21" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>单击邮件发送按钮</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="D21" s="7" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>//div[@class="nui-toolbar-item"]</t>
+        </is>
+      </c>
+      <c r="F21" s="7" t="n"/>
+      <c r="G21" s="7" t="inlineStr">
+        <is>
+          <t>2019-04-22 11:44:10</t>
+        </is>
+      </c>
+      <c r="H21" s="49" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="I21" s="7" t="inlineStr"/>
+      <c r="J21" s="25" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="22" s="48">
+      <c r="A22" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t>等待邮件发送成功，返回结果</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="D22" s="7" t="n"/>
+      <c r="E22" s="6" t="n"/>
+      <c r="F22" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="inlineStr">
+        <is>
+          <t>2019-04-22 11:44:13</t>
+        </is>
+      </c>
+      <c r="H22" s="49" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="I22" s="7" t="inlineStr"/>
+      <c r="J22" s="25" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="23" s="48">
+      <c r="A23" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>断言页面源码是否出现’发送成功‘</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>assert_string_in_pagesource</t>
+        </is>
+      </c>
+      <c r="D23" s="7" t="n"/>
+      <c r="E23" s="6" t="n"/>
+      <c r="F23" s="7" t="inlineStr">
+        <is>
+          <t>发送成功</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr">
+        <is>
+          <t>2019-04-22 11:44:14</t>
+        </is>
+      </c>
+      <c r="H23" s="50" t="inlineStr">
         <is>
           <t>faile</t>
         </is>
       </c>
-      <c r="I12" s="22" t="inlineStr">
+      <c r="I23" s="7" t="inlineStr">
         <is>
           <t>Traceback (most recent call last):
   File "G:\KeyWordFromeWork\testScripts\TestSendMailWithAttachment.py", line 296, in TestSendMailWithAttachment
     eval(expressionStr)
   File "&lt;string&gt;", line 1, in &lt;module&gt;
-  File "G:\KeyWordFromeWork\action\PageAction.py", line 289, in waitVisibilityOfElementLocated
+  File "G:\KeyWordFromeWork\action\PageAction.py", line 117, in assert_string_in_pagesource
     raise e
-  File "G:\KeyWordFromeWork\action\PageAction.py", line 287, in waitVisibilityOfElementLocated
-    waitUtil.visibilityOfElementLocated(locationType, locatorExprexxion)
-  File "G:\KeyWordFromeWork\util\WaitUtil.py", line 82, in visibilityOfElementLocated
-    raise e
-  File "G:\KeyWordFromeWork\util\WaitUtil.py", line 80, in visibilityOfElementLocated
-    EC.visibility_of_element_located((self.locationTypeDict[locationType.lower()],locatorExpression )))
-  File "G:\py\pyanzhuagn\lib\site-packages\selenium\webdriver\support\wait.py", line 80, in until
-    raise TimeoutException(message, screen, stacktrace)
-selenium.common.exceptions.TimeoutException: Message: 
-</t>
-        </is>
-      </c>
-      <c r="J12" s="21" t="inlineStr">
-        <is>
-          <t>G:\KeyWordFromeWork\exceptionpicutres\2019-4-19\18-08-51-429468.Png</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="13" s="43">
-      <c r="A13" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="13" t="n"/>
-      <c r="F13" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G13" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-19 18:08:55</t>
-        </is>
-      </c>
-      <c r="H13" s="44" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="I13" s="7" t="inlineStr"/>
-      <c r="J13" s="21" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="14" s="43">
-      <c r="A14" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>模拟键盘回车键</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>press_enter_key</t>
-        </is>
-      </c>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="6" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-19 18:08:55</t>
-        </is>
-      </c>
-      <c r="H14" s="44" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="I14" s="7" t="inlineStr"/>
-      <c r="J14" s="21" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="15" s="43">
-      <c r="A15" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="C15" s="14" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="6" t="n"/>
-      <c r="F15" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-19 18:08:58</t>
-        </is>
-      </c>
-      <c r="H15" s="44" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="I15" s="7" t="inlineStr"/>
-      <c r="J15" s="21" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="54" r="16" s="43">
-      <c r="A16" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="inlineStr">
-        <is>
-          <t>如果邮件正文frame框是可见，切换进该frame中</t>
-        </is>
-      </c>
-      <c r="C16" s="14" t="inlineStr">
-        <is>
-          <t>waitFrameToBeAvailableAndSwitchToIt</t>
-        </is>
-      </c>
-      <c r="D16" s="7" t="inlineStr">
-        <is>
-          <t>xpath</t>
-        </is>
-      </c>
-      <c r="E16" s="10" t="inlineStr">
-        <is>
-          <t>//iframe[@class='APP-editor-iframe']</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="n"/>
-      <c r="G16" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-19 18:09:29</t>
-        </is>
-      </c>
-      <c r="H16" s="45" t="inlineStr">
-        <is>
-          <t>faile</t>
-        </is>
-      </c>
-      <c r="I16" s="22" t="inlineStr">
-        <is>
-          <t>Traceback (most recent call last):
-  File "G:\KeyWordFromeWork\testScripts\TestSendMailWithAttachment.py", line 296, in TestSendMailWithAttachment
-    eval(expressionStr)
-  File "&lt;string&gt;", line 1, in &lt;module&gt;
-  File "G:\KeyWordFromeWork\action\PageAction.py", line 280, in waitFrameToBeAvailableAndSwitchToIt
-    raise e
-  File "G:\KeyWordFromeWork\action\PageAction.py", line 278, in waitFrameToBeAvailableAndSwitchToIt
-    waitUtil.frameToBeAvailableAndSwitchToIt(locationType, locatorExprexxion)
-  File "G:\KeyWordFromeWork\util\WaitUtil.py", line 74, in frameToBeAvailableAndSwitchToIt
-    raise e
-  File "G:\KeyWordFromeWork\util\WaitUtil.py", line 71, in frameToBeAvailableAndSwitchToIt
-    locatorExpression)))
-  File "G:\py\pyanzhuagn\lib\site-packages\selenium\webdriver\support\wait.py", line 80, in until
-    raise TimeoutException(message, screen, stacktrace)
-selenium.common.exceptions.TimeoutException: Message: 
-</t>
-        </is>
-      </c>
-      <c r="J16" s="21" t="inlineStr">
-        <is>
-          <t>G:\KeyWordFromeWork\exceptionpicutres\2019-4-19\18-09-29-036402.Png</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="17" s="43">
-      <c r="A17" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
-        <is>
-          <t>输入邮件正文</t>
-        </is>
-      </c>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>input_string</t>
-        </is>
-      </c>
-      <c r="D17" s="7" t="inlineStr">
-        <is>
-          <t>xpath</t>
-        </is>
-      </c>
-      <c r="E17" s="6" t="inlineStr">
-        <is>
-          <t>//body[@class='nui-scroll']</t>
-        </is>
-      </c>
-      <c r="F17" s="7" t="inlineStr">
-        <is>
-          <t>红鲤鱼与绿鲤鱼</t>
-        </is>
-      </c>
-      <c r="G17" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-19 18:10:00</t>
-        </is>
-      </c>
-      <c r="H17" s="45" t="inlineStr">
-        <is>
-          <t>faile</t>
-        </is>
-      </c>
-      <c r="I17" s="7" t="inlineStr">
-        <is>
-          <t>Traceback (most recent call last):
-  File "G:\KeyWordFromeWork\testScripts\TestSendMailWithAttachment.py", line 296, in TestSendMailWithAttachment
-    eval(expressionStr)
-  File "&lt;string&gt;", line 1, in &lt;module&gt;
-  File "G:\KeyWordFromeWork\action\PageAction.py", line 96, in input_string
-    raise e
-  File "G:\KeyWordFromeWork\action\PageAction.py", line 94, in input_string
-    getElement(driver, locationType, locatorExpression).send_keys(inputContent)
-AttributeError: 'NoneType' object has no attribute 'send_keys'
-</t>
-        </is>
-      </c>
-      <c r="J17" s="21" t="inlineStr">
-        <is>
-          <t>G:\KeyWordFromeWork\exceptionpicutres\2019-4-19\18-09-59-736870.Png</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="18" s="43">
-      <c r="A18" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
-        <is>
-          <t>退出邮件正文的fraem</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>switch_to_default_content</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="n"/>
-      <c r="E18" s="6" t="n"/>
-      <c r="F18" s="7" t="n"/>
-      <c r="G18" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-19 18:10:00</t>
-        </is>
-      </c>
-      <c r="H18" s="44" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="I18" s="7" t="inlineStr"/>
-      <c r="J18" s="21" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="19" s="43">
-      <c r="A19" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t>单击邮件发送按钮</t>
-        </is>
-      </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="D19" s="7" t="inlineStr">
-        <is>
-          <t>xpath</t>
-        </is>
-      </c>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>//span[text()= '发送']</t>
-        </is>
-      </c>
-      <c r="F19" s="7" t="n"/>
-      <c r="G19" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-19 18:10:30</t>
-        </is>
-      </c>
-      <c r="H19" s="45" t="inlineStr">
-        <is>
-          <t>faile</t>
-        </is>
-      </c>
-      <c r="I19" s="7" t="inlineStr">
-        <is>
-          <t>Traceback (most recent call last):
-  File "G:\KeyWordFromeWork\testScripts\TestSendMailWithAttachment.py", line 296, in TestSendMailWithAttachment
-    eval(expressionStr)
-  File "&lt;string&gt;", line 1, in &lt;module&gt;
-  File "G:\KeyWordFromeWork\action\PageAction.py", line 105, in click
-    raise e
-  File "G:\KeyWordFromeWork\action\PageAction.py", line 103, in click
-    getElement(driver, locationType, locatorExpression).click()
-AttributeError: 'NoneType' object has no attribute 'click'
-</t>
-        </is>
-      </c>
-      <c r="J19" s="21" t="inlineStr">
-        <is>
-          <t>G:\KeyWordFromeWork\exceptionpicutres\2019-4-19\18-10-30-642751.Png</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="20" s="43">
-      <c r="A20" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
-        <is>
-          <t>等待邮件发送成功，返回结果</t>
-        </is>
-      </c>
-      <c r="C20" s="6" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="n"/>
-      <c r="E20" s="6" t="n"/>
-      <c r="F20" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G20" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-19 18:10:34</t>
-        </is>
-      </c>
-      <c r="H20" s="44" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="I20" s="7" t="inlineStr"/>
-      <c r="J20" s="21" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="21" s="43">
-      <c r="A21" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
-        <is>
-          <t>断言页面源码是否出现’发送成功‘</t>
-        </is>
-      </c>
-      <c r="C21" s="6" t="inlineStr">
-        <is>
-          <t>assert_string_in_pagesource</t>
-        </is>
-      </c>
-      <c r="D21" s="7" t="n"/>
-      <c r="E21" s="6" t="n"/>
-      <c r="F21" s="7" t="inlineStr">
-        <is>
-          <t>发送成功</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-19 18:10:34</t>
-        </is>
-      </c>
-      <c r="H21" s="45" t="inlineStr">
-        <is>
-          <t>faile</t>
-        </is>
-      </c>
-      <c r="I21" s="7" t="inlineStr">
-        <is>
-          <t>Traceback (most recent call last):
-  File "G:\KeyWordFromeWork\testScripts\TestSendMailWithAttachment.py", line 296, in TestSendMailWithAttachment
-    eval(expressionStr)
-  File "&lt;string&gt;", line 1, in &lt;module&gt;
-  File "G:\KeyWordFromeWork\action\PageAction.py", line 116, in assert_string_in_pagesource
-    raise e
-  File "G:\KeyWordFromeWork\action\PageAction.py", line 112, in assert_string_in_pagesource
+  File "G:\KeyWordFromeWork\action\PageAction.py", line 113, in assert_string_in_pagesource
     assert assertSring in driver.page_source, ("%s not foud in page source!" )% assertSring
 AssertionError:  发送成功  not foud in page source!
 </t>
         </is>
       </c>
-      <c r="J21" s="21" t="inlineStr">
-        <is>
-          <t>G:\KeyWordFromeWork\exceptionpicutres\2019-4-19\18-10-34-264412.Png</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="22" s="43">
-      <c r="A22" s="5" t="n">
+      <c r="J23" s="25" t="inlineStr">
+        <is>
+          <t>G:\KeyWordFromeWork\exceptionpicutres\2019-4-22\11-44-13-738764.Png</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="24" s="48">
+      <c r="A24" s="5" t="n"/>
+      <c r="B24" s="17" t="inlineStr">
+        <is>
+          <t>休息</t>
+        </is>
+      </c>
+      <c r="C24" s="17" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="D24" s="18" t="n"/>
+      <c r="E24" s="17" t="n"/>
+      <c r="F24" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" s="18" t="inlineStr">
+        <is>
+          <t>2019-04-22 11:44:17</t>
+        </is>
+      </c>
+      <c r="H24" s="51" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="I24" s="18" t="inlineStr"/>
+      <c r="J24" s="27" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="25" s="48">
+      <c r="A25" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="16" t="inlineStr">
+      <c r="B25" s="20" t="inlineStr">
         <is>
           <t>关闭浏览器</t>
         </is>
       </c>
-      <c r="C22" s="16" t="inlineStr">
+      <c r="C25" s="20" t="inlineStr">
         <is>
           <t>close_browser</t>
         </is>
       </c>
-      <c r="D22" s="17" t="n"/>
-      <c r="E22" s="16" t="n"/>
-      <c r="F22" s="17" t="n"/>
-      <c r="G22" s="17" t="inlineStr">
-        <is>
-          <t>2019-04-19 18:10:37</t>
-        </is>
-      </c>
-      <c r="H22" s="46" t="inlineStr">
+      <c r="D25" s="21" t="n"/>
+      <c r="E25" s="20" t="n"/>
+      <c r="F25" s="21" t="n"/>
+      <c r="G25" s="21" t="inlineStr">
+        <is>
+          <t>2019-04-22 11:44:20</t>
+        </is>
+      </c>
+      <c r="H25" s="52" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I22" s="17" t="inlineStr"/>
-      <c r="J22" s="23" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="15" r="23" s="43"/>
-    <row customHeight="1" ht="15" r="27" s="43"/>
+      <c r="I25" s="21" t="inlineStr"/>
+      <c r="J25" s="28" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="15" r="26" s="48"/>
+    <row customHeight="1" ht="15" r="30" s="48"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/testData/126邮箱发送邮件.xlsx
+++ b/testData/126邮箱发送邮件.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12465" windowWidth="28800"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12465" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="测试用例" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="登录" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="发邮件" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="登录02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="发邮件" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -40,15 +41,15 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF008B00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="12"/>
+      <color rgb="FF008B00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -80,8 +81,61 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -112,75 +166,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -203,16 +189,31 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,37 +238,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,43 +268,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,6 +304,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -357,7 +322,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,19 +376,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,36 +394,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -607,6 +608,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -673,7 +689,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -691,7 +707,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -700,15 +716,26 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -716,22 +743,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,16 +793,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,17 +828,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,10 +842,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="22" fillId="18" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="11" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -827,137 +854,137 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="32" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="24" fillId="0" fontId="25" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="24" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="21" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="22" fillId="21" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="21" fillId="14" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="23" fillId="4" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="28" fillId="15" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="15" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="31" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="29" fillId="0" fontId="25" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -979,23 +1006,20 @@
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1011,7 +1035,7 @@
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1020,14 +1044,11 @@
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="7" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1047,16 +1068,25 @@
     <xf applyAlignment="1" borderId="12" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="14" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1065,28 +1095,25 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="16" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="17" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="18" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1097,9 +1124,21 @@
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1457,13 +1496,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="3"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="47" width="9"/>
     <col customWidth="1" max="2" min="2" style="47" width="20.375"/>
@@ -1475,104 +1514,141 @@
     <col customWidth="1" max="16384" min="16377" style="47" width="11"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="48">
-      <c r="A1" s="29" t="inlineStr">
+    <row customHeight="1" ht="30" r="1" s="51">
+      <c r="A1" s="27" t="inlineStr">
         <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="B1" s="30" t="inlineStr">
+      <c r="B1" s="28" t="inlineStr">
         <is>
           <t>用例名称</t>
         </is>
       </c>
-      <c r="C1" s="30" t="inlineStr">
+      <c r="C1" s="28" t="inlineStr">
         <is>
           <t>用例描述</t>
         </is>
       </c>
-      <c r="D1" s="30" t="inlineStr">
+      <c r="D1" s="28" t="inlineStr">
         <is>
           <t>步骤sheet名</t>
         </is>
       </c>
-      <c r="E1" s="30" t="inlineStr">
+      <c r="E1" s="28" t="inlineStr">
         <is>
           <t>是否执行</t>
         </is>
       </c>
-      <c r="F1" s="30" t="inlineStr">
+      <c r="F1" s="28" t="inlineStr">
         <is>
           <t>执行结束时间</t>
         </is>
       </c>
-      <c r="G1" s="44" t="inlineStr">
+      <c r="G1" s="30" t="inlineStr">
         <is>
           <t>结果</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" s="48">
-      <c r="A2" s="31" t="n">
+    <row customHeight="1" ht="30" r="2" s="51">
+      <c r="A2" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="inlineStr">
+      <c r="B2" s="34" t="inlineStr">
         <is>
           <t>登录126邮箱</t>
         </is>
       </c>
-      <c r="C2" s="32" t="inlineStr">
+      <c r="C2" s="33" t="inlineStr">
         <is>
           <t>使用有效的账号登录126邮箱</t>
         </is>
       </c>
-      <c r="D2" s="33" t="inlineStr">
+      <c r="D2" s="34" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
       </c>
-      <c r="E2" s="33" t="inlineStr">
+      <c r="E2" s="34" t="inlineStr">
         <is>
           <t>n</t>
         </is>
       </c>
-      <c r="F2" s="33" t="inlineStr">
+      <c r="F2" s="34" t="inlineStr">
         <is>
           <t>2019-04-06 13:44:21</t>
         </is>
       </c>
       <c r="G2" s="45" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="3" s="48">
-      <c r="A3" s="40" t="n">
+    <row customHeight="1" ht="30" r="3" s="51">
+      <c r="A3" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="42" t="inlineStr">
+      <c r="B3" s="48" t="inlineStr">
+        <is>
+          <t>cookie登录</t>
+        </is>
+      </c>
+      <c r="C3" s="49" t="inlineStr">
+        <is>
+          <t>使用本地cookie登录</t>
+        </is>
+      </c>
+      <c r="D3" s="48" t="inlineStr">
+        <is>
+          <t>登录02</t>
+        </is>
+      </c>
+      <c r="E3" s="48" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="F3" s="48" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:09:40</t>
+        </is>
+      </c>
+      <c r="G3" s="53" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="4" s="51">
+      <c r="A4" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="43" t="inlineStr">
         <is>
           <t>发送附带附件的邮箱</t>
         </is>
       </c>
-      <c r="C3" s="41" t="inlineStr">
+      <c r="C4" s="42" t="inlineStr">
         <is>
           <t>登录126邮箱后，发送一封带附件的邮件</t>
         </is>
       </c>
-      <c r="D3" s="42" t="inlineStr">
+      <c r="D4" s="43" t="inlineStr">
         <is>
           <t>发邮件</t>
         </is>
       </c>
-      <c r="E3" s="42" t="inlineStr">
+      <c r="E4" s="43" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="F3" s="42" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:44:20</t>
-        </is>
-      </c>
-      <c r="G3" s="46" t="n"/>
+      <c r="F4" s="43" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:10:19</t>
+        </is>
+      </c>
+      <c r="G4" s="46" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1589,7 +1665,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -1605,220 +1681,220 @@
     <col customWidth="1" max="16384" min="16380" style="1" width="11"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="48">
-      <c r="A1" s="29" t="inlineStr">
+    <row customHeight="1" ht="30" r="1" s="51">
+      <c r="A1" s="27" t="inlineStr">
         <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="B1" s="30" t="inlineStr">
+      <c r="B1" s="28" t="inlineStr">
         <is>
           <t>测试步骤描述</t>
         </is>
       </c>
-      <c r="C1" s="30" t="inlineStr">
+      <c r="C1" s="28" t="inlineStr">
         <is>
           <t>关键字</t>
         </is>
       </c>
-      <c r="D1" s="30" t="inlineStr">
+      <c r="D1" s="28" t="inlineStr">
         <is>
           <t>操作元素的定位方式</t>
         </is>
       </c>
-      <c r="E1" s="30" t="inlineStr">
+      <c r="E1" s="28" t="inlineStr">
         <is>
           <t>操作元素的定位表达式</t>
         </is>
       </c>
-      <c r="F1" s="30" t="inlineStr">
+      <c r="F1" s="28" t="inlineStr">
         <is>
           <t>操作值</t>
         </is>
       </c>
-      <c r="G1" s="30" t="inlineStr">
+      <c r="G1" s="28" t="inlineStr">
         <is>
           <t>测试执行时间</t>
         </is>
       </c>
-      <c r="H1" s="30" t="inlineStr">
+      <c r="H1" s="28" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
-      <c r="I1" s="30" t="inlineStr">
+      <c r="I1" s="28" t="inlineStr">
         <is>
           <t>错误信息</t>
         </is>
       </c>
-      <c r="J1" s="44" t="inlineStr">
+      <c r="J1" s="30" t="inlineStr">
         <is>
           <t>错误截图</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" s="48">
-      <c r="A2" s="31" t="n">
+    <row customHeight="1" ht="30" r="2" s="51">
+      <c r="A2" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="inlineStr">
+      <c r="B2" s="33" t="inlineStr">
         <is>
           <t>打开浏览器</t>
         </is>
       </c>
-      <c r="C2" s="33" t="inlineStr">
+      <c r="C2" s="34" t="inlineStr">
         <is>
           <t>open_browser</t>
         </is>
       </c>
-      <c r="D2" s="33" t="n"/>
-      <c r="E2" s="32" t="n"/>
-      <c r="F2" s="33" t="inlineStr">
+      <c r="D2" s="34" t="n"/>
+      <c r="E2" s="33" t="n"/>
+      <c r="F2" s="34" t="inlineStr">
         <is>
           <t>chrome</t>
         </is>
       </c>
-      <c r="G2" s="33" t="inlineStr">
+      <c r="G2" s="34" t="inlineStr">
         <is>
           <t>2019-04-06 13:43:01</t>
         </is>
       </c>
-      <c r="H2" s="34" t="inlineStr">
+      <c r="H2" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I2" s="33" t="inlineStr"/>
+      <c r="I2" s="34" t="inlineStr"/>
       <c r="J2" s="45" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="30" r="3" s="48">
-      <c r="A3" s="31" t="n">
+    <row customHeight="1" ht="30" r="3" s="51">
+      <c r="A3" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="32" t="inlineStr">
+      <c r="B3" s="33" t="inlineStr">
         <is>
           <t>访问被测试网址https://www.126.com</t>
         </is>
       </c>
-      <c r="C3" s="33" t="inlineStr">
+      <c r="C3" s="34" t="inlineStr">
         <is>
           <t>visit_url</t>
         </is>
       </c>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="32" t="n"/>
+      <c r="D3" s="34" t="n"/>
+      <c r="E3" s="33" t="n"/>
       <c r="F3" s="0" t="inlineStr">
         <is>
           <t>https://www.126.com</t>
         </is>
       </c>
-      <c r="G3" s="33" t="inlineStr">
+      <c r="G3" s="34" t="inlineStr">
         <is>
           <t>2019-04-06 13:43:07</t>
         </is>
       </c>
-      <c r="H3" s="34" t="inlineStr">
+      <c r="H3" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I3" s="33" t="inlineStr"/>
+      <c r="I3" s="34" t="inlineStr"/>
       <c r="J3" s="45" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="30" r="4" s="48">
-      <c r="A4" s="31" t="n">
+    <row customHeight="1" ht="30" r="4" s="51">
+      <c r="A4" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="inlineStr">
+      <c r="B4" s="33" t="inlineStr">
         <is>
           <t>最大化</t>
         </is>
       </c>
-      <c r="C4" s="33" t="inlineStr">
+      <c r="C4" s="34" t="inlineStr">
         <is>
           <t>maximize_brower</t>
         </is>
       </c>
-      <c r="D4" s="35" t="n"/>
-      <c r="E4" s="32" t="n"/>
-      <c r="F4" s="33" t="n"/>
-      <c r="G4" s="33" t="inlineStr">
+      <c r="D4" s="36" t="n"/>
+      <c r="E4" s="33" t="n"/>
+      <c r="F4" s="34" t="n"/>
+      <c r="G4" s="34" t="inlineStr">
         <is>
           <t>2019-04-06 13:43:09</t>
         </is>
       </c>
-      <c r="H4" s="34" t="inlineStr">
+      <c r="H4" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I4" s="33" t="inlineStr"/>
+      <c r="I4" s="34" t="inlineStr"/>
       <c r="J4" s="45" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="30" r="5" s="48">
-      <c r="A5" s="31" t="n">
+    <row customHeight="1" ht="30" r="5" s="51">
+      <c r="A5" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="32" t="inlineStr">
+      <c r="B5" s="33" t="inlineStr">
         <is>
           <t>等待126邮箱登录主页加载完成</t>
         </is>
       </c>
-      <c r="C5" s="33" t="inlineStr">
+      <c r="C5" s="34" t="inlineStr">
         <is>
           <t>sleep</t>
         </is>
       </c>
-      <c r="D5" s="33" t="n"/>
-      <c r="E5" s="32" t="n"/>
-      <c r="F5" s="33" t="n">
+      <c r="D5" s="34" t="n"/>
+      <c r="E5" s="33" t="n"/>
+      <c r="F5" s="34" t="n">
         <v>5</v>
       </c>
-      <c r="G5" s="33" t="inlineStr">
+      <c r="G5" s="34" t="inlineStr">
         <is>
           <t>2019-04-06 13:43:14</t>
         </is>
       </c>
-      <c r="H5" s="34" t="inlineStr">
+      <c r="H5" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I5" s="33" t="inlineStr"/>
+      <c r="I5" s="34" t="inlineStr"/>
       <c r="J5" s="45" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="30" r="6" s="48">
-      <c r="A6" s="31" t="n">
+    <row customHeight="1" ht="30" r="6" s="51">
+      <c r="A6" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="inlineStr">
+      <c r="B6" s="33" t="inlineStr">
         <is>
           <t>断言当前活动页面源码中是否包好“126网易免费邮箱你的电子专业电子邮局</t>
         </is>
       </c>
-      <c r="C6" s="33" t="inlineStr">
+      <c r="C6" s="34" t="inlineStr">
         <is>
           <t>assert_string_in_pagesource</t>
         </is>
       </c>
-      <c r="D6" s="33" t="n"/>
-      <c r="E6" s="32" t="n"/>
-      <c r="F6" s="36" t="inlineStr">
+      <c r="D6" s="34" t="n"/>
+      <c r="E6" s="33" t="n"/>
+      <c r="F6" s="37" t="inlineStr">
         <is>
           <t>你的专业电子邮局</t>
         </is>
       </c>
-      <c r="G6" s="33" t="inlineStr">
+      <c r="G6" s="34" t="inlineStr">
         <is>
           <t>2019-04-06 13:43:14</t>
         </is>
       </c>
-      <c r="H6" s="37" t="inlineStr">
+      <c r="H6" s="38" t="inlineStr">
         <is>
           <t>faile</t>
         </is>
       </c>
-      <c r="I6" s="33" t="inlineStr">
+      <c r="I6" s="34" t="inlineStr">
         <is>
           <t>Traceback (most recent call last):
   File "G:\KeyWordFromeWork\testScripts\TestSendMailWithAttachment.py", line 295, in TestSendMailWithAttachment
@@ -1837,42 +1913,42 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="45" r="7" s="48">
-      <c r="A7" s="31" t="n">
+    <row customHeight="1" ht="45" r="7" s="51">
+      <c r="A7" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="32" t="inlineStr">
+      <c r="B7" s="33" t="inlineStr">
         <is>
           <t>显示等待ID属性值为x-URS-iframede frame的框出现，然后切换进入该frame框中</t>
         </is>
       </c>
-      <c r="C7" s="38" t="inlineStr">
+      <c r="C7" s="39" t="inlineStr">
         <is>
           <t>waitFrameToBeAvailableAndSwitchToIt</t>
         </is>
       </c>
-      <c r="D7" s="33" t="inlineStr">
+      <c r="D7" s="34" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E7" s="39" t="inlineStr">
+      <c r="E7" s="40" t="inlineStr">
         <is>
           <t>//iframe[contains(@id,'x-URS-iframe')]</t>
         </is>
       </c>
-      <c r="F7" s="33" t="n"/>
-      <c r="G7" s="33" t="inlineStr">
+      <c r="F7" s="34" t="n"/>
+      <c r="G7" s="34" t="inlineStr">
         <is>
           <t>2019-04-06 13:43:45</t>
         </is>
       </c>
-      <c r="H7" s="37" t="inlineStr">
+      <c r="H7" s="38" t="inlineStr">
         <is>
           <t>faile</t>
         </is>
       </c>
-      <c r="I7" s="33" t="inlineStr">
+      <c r="I7" s="34" t="inlineStr">
         <is>
           <t>Traceback (most recent call last):
   File "G:\KeyWordFromeWork\testScripts\TestSendMailWithAttachment.py", line 295, in TestSendMailWithAttachment
@@ -1897,46 +1973,46 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="8" s="48">
-      <c r="A8" s="31" t="n">
+    <row customHeight="1" ht="30" r="8" s="51">
+      <c r="A8" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="32" t="inlineStr">
+      <c r="B8" s="33" t="inlineStr">
         <is>
           <t>输入登录用户名</t>
         </is>
       </c>
-      <c r="C8" s="33" t="inlineStr">
+      <c r="C8" s="34" t="inlineStr">
         <is>
           <t>inpu_string</t>
         </is>
       </c>
-      <c r="D8" s="33" t="inlineStr">
+      <c r="D8" s="34" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E8" s="32" t="inlineStr">
+      <c r="E8" s="33" t="inlineStr">
         <is>
           <t>//input[@name='email']</t>
         </is>
       </c>
-      <c r="F8" s="33" t="inlineStr">
+      <c r="F8" s="34" t="inlineStr">
         <is>
           <t>sunsmileak007</t>
         </is>
       </c>
-      <c r="G8" s="33" t="inlineStr">
+      <c r="G8" s="34" t="inlineStr">
         <is>
           <t>2019-04-06 13:43:46</t>
         </is>
       </c>
-      <c r="H8" s="37" t="inlineStr">
+      <c r="H8" s="38" t="inlineStr">
         <is>
           <t>faile</t>
         </is>
       </c>
-      <c r="I8" s="33" t="inlineStr">
+      <c r="I8" s="34" t="inlineStr">
         <is>
           <t>Traceback (most recent call last):
   File "G:\KeyWordFromeWork\testScripts\TestSendMailWithAttachment.py", line 295, in TestSendMailWithAttachment
@@ -1951,46 +2027,46 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="9" s="48">
-      <c r="A9" s="31" t="n">
+    <row customHeight="1" ht="30" r="9" s="51">
+      <c r="A9" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="32" t="inlineStr">
+      <c r="B9" s="33" t="inlineStr">
         <is>
           <t>输入的登录密码</t>
         </is>
       </c>
-      <c r="C9" s="33" t="inlineStr">
+      <c r="C9" s="34" t="inlineStr">
         <is>
           <t>input_string</t>
         </is>
       </c>
-      <c r="D9" s="33" t="inlineStr">
+      <c r="D9" s="34" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E9" s="32" t="inlineStr">
+      <c r="E9" s="33" t="inlineStr">
         <is>
           <t>//input[@name='password']</t>
         </is>
       </c>
-      <c r="F9" s="33" t="inlineStr">
+      <c r="F9" s="34" t="inlineStr">
         <is>
           <t>wgwgwg0051</t>
         </is>
       </c>
-      <c r="G9" s="33" t="inlineStr">
+      <c r="G9" s="34" t="inlineStr">
         <is>
           <t>2019-04-06 13:44:17</t>
         </is>
       </c>
-      <c r="H9" s="37" t="inlineStr">
+      <c r="H9" s="38" t="inlineStr">
         <is>
           <t>faile</t>
         </is>
       </c>
-      <c r="I9" s="33" t="inlineStr">
+      <c r="I9" s="34" t="inlineStr">
         <is>
           <t>Traceback (most recent call last):
   File "G:\KeyWordFromeWork\testScripts\TestSendMailWithAttachment.py", line 295, in TestSendMailWithAttachment
@@ -2009,34 +2085,34 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="10" s="48">
-      <c r="A10" s="31" t="n">
+    <row customHeight="1" ht="30" r="10" s="51">
+      <c r="A10" s="32" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="32" t="inlineStr">
+      <c r="B10" s="33" t="inlineStr">
         <is>
           <t>单击登录按钮</t>
         </is>
       </c>
-      <c r="C10" s="33" t="inlineStr">
+      <c r="C10" s="34" t="inlineStr">
         <is>
           <t>click</t>
         </is>
       </c>
-      <c r="D10" s="33" t="n"/>
-      <c r="E10" s="32" t="n"/>
-      <c r="F10" s="33" t="n"/>
-      <c r="G10" s="33" t="inlineStr">
+      <c r="D10" s="34" t="n"/>
+      <c r="E10" s="33" t="n"/>
+      <c r="F10" s="34" t="n"/>
+      <c r="G10" s="34" t="inlineStr">
         <is>
           <t>2019-04-06 13:44:17</t>
         </is>
       </c>
-      <c r="H10" s="37" t="inlineStr">
+      <c r="H10" s="38" t="inlineStr">
         <is>
           <t>faile</t>
         </is>
       </c>
-      <c r="I10" s="33" t="inlineStr">
+      <c r="I10" s="34" t="inlineStr">
         <is>
           <t>Traceback (most recent call last):
   File "G:\KeyWordFromeWork\testScripts\TestSendMailWithAttachment.py", line 295, in TestSendMailWithAttachment
@@ -2051,100 +2127,100 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="11" s="48">
-      <c r="A11" s="31" t="n">
+    <row customHeight="1" ht="30" r="11" s="51">
+      <c r="A11" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="32" t="inlineStr">
+      <c r="B11" s="33" t="inlineStr">
         <is>
           <t>等待</t>
         </is>
       </c>
-      <c r="C11" s="33" t="inlineStr">
+      <c r="C11" s="34" t="inlineStr">
         <is>
           <t>sleep</t>
         </is>
       </c>
-      <c r="D11" s="33" t="n"/>
-      <c r="E11" s="32" t="n"/>
-      <c r="F11" s="33" t="n">
+      <c r="D11" s="34" t="n"/>
+      <c r="E11" s="33" t="n"/>
+      <c r="F11" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="33" t="inlineStr">
+      <c r="G11" s="34" t="inlineStr">
         <is>
           <t>2019-04-06 13:44:20</t>
         </is>
       </c>
-      <c r="H11" s="34" t="inlineStr">
+      <c r="H11" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I11" s="33" t="inlineStr"/>
+      <c r="I11" s="34" t="inlineStr"/>
       <c r="J11" s="45" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="30" r="12" s="48">
-      <c r="A12" s="31" t="n">
+    <row customHeight="1" ht="30" r="12" s="51">
+      <c r="A12" s="32" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="32" t="inlineStr">
+      <c r="B12" s="33" t="inlineStr">
         <is>
           <t>切回默认会话体</t>
         </is>
       </c>
-      <c r="C12" s="33" t="inlineStr">
+      <c r="C12" s="34" t="inlineStr">
         <is>
           <t>switch_to_default_content</t>
         </is>
       </c>
-      <c r="D12" s="33" t="n"/>
-      <c r="E12" s="32" t="n"/>
-      <c r="F12" s="33" t="n"/>
-      <c r="G12" s="33" t="inlineStr">
+      <c r="D12" s="34" t="n"/>
+      <c r="E12" s="33" t="n"/>
+      <c r="F12" s="34" t="n"/>
+      <c r="G12" s="34" t="inlineStr">
         <is>
           <t>2019-04-06 13:44:21</t>
         </is>
       </c>
-      <c r="H12" s="34" t="inlineStr">
+      <c r="H12" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I12" s="33" t="inlineStr"/>
+      <c r="I12" s="34" t="inlineStr"/>
       <c r="J12" s="45" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="30" r="13" s="48">
-      <c r="A13" s="40" t="n">
+    <row customHeight="1" ht="30" r="13" s="51">
+      <c r="A13" s="41" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="41" t="inlineStr">
+      <c r="B13" s="42" t="inlineStr">
         <is>
           <t>断言登录成功后的页面标题是否包含“网易邮箱”</t>
         </is>
       </c>
-      <c r="C13" s="42" t="inlineStr">
+      <c r="C13" s="43" t="inlineStr">
         <is>
           <t>assert_title</t>
         </is>
       </c>
-      <c r="D13" s="42" t="n"/>
-      <c r="E13" s="41" t="n"/>
-      <c r="F13" s="42" t="inlineStr">
+      <c r="D13" s="43" t="n"/>
+      <c r="E13" s="42" t="n"/>
+      <c r="F13" s="43" t="inlineStr">
         <is>
           <t>网易邮箱</t>
         </is>
       </c>
-      <c r="G13" s="42" t="inlineStr">
+      <c r="G13" s="43" t="inlineStr">
         <is>
           <t>2019-04-06 13:44:21</t>
         </is>
       </c>
-      <c r="H13" s="43" t="inlineStr">
+      <c r="H13" s="44" t="inlineStr">
         <is>
           <t>faile</t>
         </is>
       </c>
-      <c r="I13" s="42" t="inlineStr">
+      <c r="I13" s="43" t="inlineStr">
         <is>
           <t>Traceback (most recent call last):
   File "G:\KeyWordFromeWork\testScripts\TestSendMailWithAttachment.py", line 295, in TestSendMailWithAttachment
@@ -2163,7 +2239,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="17" s="48">
+    <row customHeight="1" ht="30" r="17" s="51">
       <c r="A17" s="5" t="n">
         <v>11</v>
       </c>
@@ -2172,12 +2248,12 @@
           <t>显示等待附件上传完毕</t>
         </is>
       </c>
-      <c r="C17" s="14" t="inlineStr">
+      <c r="C17" s="13" t="inlineStr">
         <is>
           <t>waitVisibilityOfElementLocated</t>
         </is>
       </c>
-      <c r="D17" s="7" t="inlineStr">
+      <c r="D17" s="8" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
@@ -2187,18 +2263,18 @@
           <t>//span[text()='上传完成']</t>
         </is>
       </c>
-      <c r="F17" s="7" t="n"/>
-      <c r="G17" s="7" t="inlineStr">
+      <c r="F17" s="8" t="n"/>
+      <c r="G17" s="8" t="inlineStr">
         <is>
           <t>2019-04-22 09:12:16</t>
         </is>
       </c>
-      <c r="H17" s="16" t="inlineStr">
+      <c r="H17" s="15" t="inlineStr">
         <is>
           <t>faile</t>
         </is>
       </c>
-      <c r="I17" s="26" t="inlineStr">
+      <c r="I17" s="24" t="inlineStr">
         <is>
           <t>Traceback (most recent call last):
   File "G:\KeyWordFromeWork\testScripts\TestSendMailWithAttachment.py", line 296, in TestSendMailWithAttachment
@@ -2217,7 +2293,7 @@
 selenium.common.exceptions.TimeoutException: Message:</t>
         </is>
       </c>
-      <c r="J17" s="25" t="inlineStr">
+      <c r="J17" s="23" t="inlineStr">
         <is>
           <t>G:\KeyWordFromeWork\exceptionpicutres\2019-4-22\09-12-15-897728.Png</t>
         </is>
@@ -2235,10 +2311,155 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="2"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" style="51" width="30.25"/>
+    <col customWidth="1" max="3" min="3" style="51" width="25.125"/>
+    <col customWidth="1" max="6" min="6" style="51" width="28.375"/>
+    <col customWidth="1" max="7" min="7" style="51" width="29.25"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="30" r="1" s="1">
+      <c r="A1" s="27" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B1" s="28" t="inlineStr">
+        <is>
+          <t>测试步骤描述</t>
+        </is>
+      </c>
+      <c r="C1" s="28" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="D1" s="28" t="inlineStr">
+        <is>
+          <t>操作元素的定位方式</t>
+        </is>
+      </c>
+      <c r="E1" s="28" t="inlineStr">
+        <is>
+          <t>操作元素的定位表达式</t>
+        </is>
+      </c>
+      <c r="F1" s="28" t="inlineStr">
+        <is>
+          <t>操作值</t>
+        </is>
+      </c>
+      <c r="G1" s="28" t="inlineStr">
+        <is>
+          <t>测试执行时间</t>
+        </is>
+      </c>
+      <c r="H1" s="28" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+      <c r="I1" s="28" t="inlineStr">
+        <is>
+          <t>错误信息</t>
+        </is>
+      </c>
+      <c r="J1" s="30" t="inlineStr">
+        <is>
+          <t>错误截图</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="42" r="2" s="51">
+      <c r="A2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>开的网页</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>open_browser</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="n"/>
+      <c r="E2" s="8" t="n"/>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="G2" s="9" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:09:27</t>
+        </is>
+      </c>
+      <c r="H2" s="52" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="I2" s="9" t="inlineStr"/>
+      <c r="J2" s="31" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="3" s="51">
+      <c r="A3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>使用cookie登录</t>
+        </is>
+      </c>
+      <c r="C3" s="29" t="inlineStr">
+        <is>
+          <t>new_browser</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" s="29" t="n"/>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>https://www.126.com/</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:09:40</t>
+        </is>
+      </c>
+      <c r="H3" s="52" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="I3" s="8" t="inlineStr"/>
+      <c r="J3" s="23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -2255,7 +2476,7 @@
     <col customWidth="1" max="16384" min="16376" style="1" width="11"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="48">
+    <row customHeight="1" ht="30" r="1" s="51">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>序号</t>
@@ -2301,782 +2522,716 @@
           <t>错误信息</t>
         </is>
       </c>
-      <c r="J1" s="23" t="inlineStr">
+      <c r="J1" s="22" t="inlineStr">
         <is>
           <t>错误截图</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="42" r="2" s="48">
+    <row customHeight="1" ht="30" r="2" s="51">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="inlineStr">
         <is>
-          <t>开的网页</t>
+          <t>休息</t>
         </is>
       </c>
       <c r="C2" s="7" t="inlineStr">
         <is>
-          <t>open_browser</t>
-        </is>
-      </c>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="6" t="n"/>
-      <c r="F2" s="7" t="inlineStr">
-        <is>
-          <t>chrome</t>
-        </is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="n"/>
+      <c r="E2" s="7" t="n"/>
+      <c r="F2" s="9" t="n">
+        <v>5</v>
       </c>
       <c r="G2" s="8" t="inlineStr">
         <is>
-          <t>2019-04-22 11:43:30</t>
-        </is>
-      </c>
-      <c r="H2" s="49" t="inlineStr">
+          <t>2019-04-23 09:09:46</t>
+        </is>
+      </c>
+      <c r="H2" s="52" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
       <c r="I2" s="8" t="inlineStr"/>
-      <c r="J2" s="24" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="3" s="48">
+      <c r="J2" s="23" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="33" r="3" s="51">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t>使用cookie登录</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>new_browser</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="10" t="n"/>
-      <c r="F3" s="11" t="inlineStr">
-        <is>
-          <t>https://www.126.com/</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:43:41</t>
-        </is>
-      </c>
-      <c r="H3" s="49" t="inlineStr">
+          <t>判断“写信”按钮是否在页面上可见</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>waitVisibilityOfElementLocated</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>html/body/div[1]/nav/div[1]/ul/li[2]/span[2]</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="n"/>
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:09:46</t>
+        </is>
+      </c>
+      <c r="H3" s="52" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I3" s="7" t="inlineStr"/>
-      <c r="J3" s="25" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="4" s="48">
+      <c r="I3" s="8" t="inlineStr"/>
+      <c r="J3" s="23" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="4" s="51">
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
-      </c>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="10" t="n"/>
-      <c r="F4" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:43:47</t>
-        </is>
-      </c>
-      <c r="H4" s="49" t="inlineStr">
+          <t>单击“写信”按钮</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>html/body/div[1]/nav/div[1]/ul/li[2]/span[2]</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="n"/>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:09:46</t>
+        </is>
+      </c>
+      <c r="H4" s="52" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I4" s="7" t="inlineStr"/>
-      <c r="J4" s="25" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="33" r="5" s="48">
+      <c r="I4" s="8" t="inlineStr"/>
+      <c r="J4" s="23" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="5" s="51">
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>判断“写信”按钮是否在页面上可见</t>
-        </is>
-      </c>
-      <c r="C5" s="10" t="inlineStr">
-        <is>
-          <t>waitVisibilityOfElementLocated</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
+          <t>输入收件人地址</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>input_string</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E5" s="10" t="inlineStr">
-        <is>
-          <t>html/body/div[1]/nav/div[1]/ul/li[2]/span[2]</t>
-        </is>
-      </c>
-      <c r="F5" s="7" t="n"/>
-      <c r="G5" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:43:47</t>
-        </is>
-      </c>
-      <c r="H5" s="49" t="inlineStr">
+      <c r="E5" s="11" t="inlineStr">
+        <is>
+          <t>//div[contains(@id ,'_mail_emailinput')]/input</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>125081306@qq.com</t>
+        </is>
+      </c>
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:09:47</t>
+        </is>
+      </c>
+      <c r="H5" s="52" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I5" s="7" t="inlineStr"/>
-      <c r="J5" s="25" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="6" s="48">
+      <c r="I5" s="8" t="inlineStr"/>
+      <c r="J5" s="23" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="6" s="51">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
-          <t>单击“写信”按钮</t>
+          <t>输入收件人邮箱</t>
         </is>
       </c>
       <c r="C6" s="6" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="inlineStr">
+          <t>input_string</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>html/body/div[1]/nav/div[1]/ul/li[2]/span[2]</t>
-        </is>
-      </c>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:43:47</t>
-        </is>
-      </c>
-      <c r="H6" s="49" t="inlineStr">
+      <c r="E6" s="11" t="inlineStr">
+        <is>
+          <t>//div[@aria-label='邮件主题输入框，请输入邮件主题']/input</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
+        <is>
+          <t>带附件的邮件</t>
+        </is>
+      </c>
+      <c r="G6" s="8" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:09:47</t>
+        </is>
+      </c>
+      <c r="H6" s="52" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I6" s="7" t="inlineStr"/>
-      <c r="J6" s="25" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="7" s="48">
+      <c r="I6" s="8" t="inlineStr"/>
+      <c r="J6" s="23" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="7" s="51">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>输入收件人地址</t>
+          <t>休息</t>
         </is>
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>input_string</t>
-        </is>
-      </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>xpath</t>
-        </is>
-      </c>
-      <c r="E7" s="12" t="inlineStr">
-        <is>
-          <t>//div[contains(@id ,'_mail_emailinput')]/input</t>
-        </is>
-      </c>
-      <c r="F7" s="11" t="inlineStr">
-        <is>
-          <t>125081306@qq.com</t>
-        </is>
-      </c>
-      <c r="G7" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:43:48</t>
-        </is>
-      </c>
-      <c r="H7" s="49" t="inlineStr">
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="n"/>
+      <c r="E7" s="11" t="n"/>
+      <c r="F7" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:09:52</t>
+        </is>
+      </c>
+      <c r="H7" s="52" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I7" s="7" t="inlineStr"/>
-      <c r="J7" s="25" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="8" s="48">
+      <c r="I7" s="8" t="inlineStr"/>
+      <c r="J7" s="23" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="8" s="51">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>输入收件人邮箱</t>
+          <t>单击上传附件链接</t>
         </is>
       </c>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t>input_string</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr">
+          <t>click</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E8" s="12" t="inlineStr">
-        <is>
-          <t>//div[@aria-label='邮件主题输入框，请输入邮件主题']/input</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr">
-        <is>
-          <t>带附件的邮件</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:43:48</t>
-        </is>
-      </c>
-      <c r="H8" s="49" t="inlineStr">
+      <c r="E8" s="11" t="inlineStr">
+        <is>
+          <t>//div[@title="点击添加附件"]</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="n"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:09:52</t>
+        </is>
+      </c>
+      <c r="H8" s="52" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="25" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="9" s="48">
+      <c r="I8" s="24" t="inlineStr"/>
+      <c r="J8" s="23" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="9" s="51">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>休息</t>
+          <t>输入附件所在的绝对路径</t>
         </is>
       </c>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>sleep</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="n"/>
+          <t>paste_string</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="n"/>
       <c r="E9" s="12" t="n"/>
-      <c r="F9" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="G9" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:43:53</t>
-        </is>
-      </c>
-      <c r="H9" s="49" t="inlineStr">
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>G:\\KeyWordFromeWork\\a.txt</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:09:55</t>
+        </is>
+      </c>
+      <c r="H9" s="52" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="25" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="10" s="48">
+      <c r="I9" s="8" t="inlineStr"/>
+      <c r="J9" s="23" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="10" s="51">
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="inlineStr">
         <is>
-          <t>单击上传附件链接</t>
+          <t>休息</t>
         </is>
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>xpath</t>
-        </is>
-      </c>
-      <c r="E10" s="12" t="inlineStr">
-        <is>
-          <t>//div[@title="点击添加附件"]</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:43:53</t>
-        </is>
-      </c>
-      <c r="H10" s="49" t="inlineStr">
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="12" t="n"/>
+      <c r="F10" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:09:58</t>
+        </is>
+      </c>
+      <c r="H10" s="52" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I10" s="26" t="inlineStr"/>
-      <c r="J10" s="25" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="11" s="48">
+      <c r="I10" s="8" t="inlineStr"/>
+      <c r="J10" s="23" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="11" s="51">
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>输入附件所在的绝对路径</t>
+          <t>模拟键盘回车键</t>
         </is>
       </c>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>paste_string</t>
-        </is>
-      </c>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="13" t="n"/>
-      <c r="F11" s="7" t="inlineStr">
-        <is>
-          <t>G:\\KeyWordFromeWork\\a.txt</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:43:56</t>
-        </is>
-      </c>
-      <c r="H11" s="49" t="inlineStr">
+          <t>press_enter_key</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="6" t="n"/>
+      <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:09:58</t>
+        </is>
+      </c>
+      <c r="H11" s="52" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="25" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="12" s="48">
+      <c r="I11" s="8" t="inlineStr"/>
+      <c r="J11" s="23" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="12" s="51">
       <c r="A12" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>休息</t>
+        </is>
+      </c>
+      <c r="C12" s="13" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="n"/>
+      <c r="E12" s="6" t="n"/>
+      <c r="F12" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:10:01</t>
+        </is>
+      </c>
+      <c r="H12" s="52" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
+      <c r="J12" s="23" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="54" r="13" s="51">
+      <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B12" s="6" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>如果邮件正文frame框是可见，切换进该frame中</t>
+        </is>
+      </c>
+      <c r="C13" s="13" t="inlineStr">
+        <is>
+          <t>switch_to_frame</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t>//iframe[@tabindex="1"]</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:10:01</t>
+        </is>
+      </c>
+      <c r="H13" s="52" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="I13" s="24" t="inlineStr"/>
+      <c r="J13" s="23" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="54" r="14" s="51">
+      <c r="A14" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>休息</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="C14" s="13" t="inlineStr">
         <is>
           <t>sleep</t>
         </is>
       </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="13" t="n"/>
-      <c r="F12" s="7" t="n">
+      <c r="D14" s="8" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:43:59</t>
-        </is>
-      </c>
-      <c r="H12" s="49" t="inlineStr">
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:10:05</t>
+        </is>
+      </c>
+      <c r="H14" s="52" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I12" s="7" t="inlineStr"/>
-      <c r="J12" s="25" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="13" s="48">
-      <c r="A13" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t>模拟键盘回车键</t>
-        </is>
-      </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>press_enter_key</t>
-        </is>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="6" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:43:59</t>
-        </is>
-      </c>
-      <c r="H13" s="49" t="inlineStr">
+      <c r="I14" s="24" t="inlineStr"/>
+      <c r="J14" s="23" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="15" s="51">
+      <c r="A15" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C15" s="14" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>//body[@class="nui-scroll"]</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="n"/>
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:10:05</t>
+        </is>
+      </c>
+      <c r="H15" s="52" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I13" s="7" t="inlineStr"/>
-      <c r="J13" s="25" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="14" s="48">
-      <c r="A14" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="I15" s="24" t="inlineStr"/>
+      <c r="J15" s="23" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="16" s="51">
+      <c r="A16" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>输入邮件正文</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>input_string</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>//body[@class="nui-scroll"]</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>红鲤鱼与绿鲤鱼</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:10:05</t>
+        </is>
+      </c>
+      <c r="H16" s="52" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="I16" s="24" t="inlineStr"/>
+      <c r="J16" s="23" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="17" s="51">
+      <c r="A17" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>退出邮件正文的fraem</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>switch_to_default_content</t>
+        </is>
+      </c>
+      <c r="D17" s="8" t="n"/>
+      <c r="E17" s="6" t="n"/>
+      <c r="F17" s="8" t="n"/>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:10:05</t>
+        </is>
+      </c>
+      <c r="H17" s="52" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr"/>
+      <c r="J17" s="23" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="18" s="51">
+      <c r="A18" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>休息</t>
         </is>
       </c>
-      <c r="C14" s="14" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>sleep</t>
         </is>
       </c>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="6" t="n"/>
-      <c r="F14" s="7" t="n">
+      <c r="D18" s="8" t="n"/>
+      <c r="E18" s="6" t="n"/>
+      <c r="F18" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:44:02</t>
-        </is>
-      </c>
-      <c r="H14" s="49" t="inlineStr">
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:10:09</t>
+        </is>
+      </c>
+      <c r="H18" s="52" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I14" s="7" t="inlineStr"/>
-      <c r="J14" s="25" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="54" r="15" s="48">
-      <c r="A15" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>如果邮件正文frame框是可见，切换进该frame中</t>
-        </is>
-      </c>
-      <c r="C15" s="14" t="inlineStr">
-        <is>
-          <t>switch_to_frame</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
+      <c r="I18" s="8" t="inlineStr"/>
+      <c r="J18" s="23" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="19" s="51">
+      <c r="A19" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>单击邮件发送按钮</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="D19" s="8" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>//iframe[@tabindex="1"]</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:44:03</t>
-        </is>
-      </c>
-      <c r="H15" s="49" t="inlineStr">
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>//div[@class="nui-toolbar-item"]</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="n"/>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:10:09</t>
+        </is>
+      </c>
+      <c r="H19" s="52" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I15" s="26" t="inlineStr"/>
-      <c r="J15" s="25" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="54" r="16" s="48">
-      <c r="A16" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6" t="inlineStr">
-        <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="C16" s="14" t="inlineStr">
+      <c r="I19" s="8" t="inlineStr"/>
+      <c r="J19" s="23" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="20" s="51">
+      <c r="A20" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>等待邮件发送成功，返回结果</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>sleep</t>
         </is>
       </c>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="10" t="n"/>
-      <c r="F16" s="7" t="n">
+      <c r="D20" s="8" t="n"/>
+      <c r="E20" s="6" t="n"/>
+      <c r="F20" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:44:06</t>
-        </is>
-      </c>
-      <c r="H16" s="49" t="inlineStr">
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:10:12</t>
+        </is>
+      </c>
+      <c r="H20" s="52" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I16" s="26" t="inlineStr"/>
-      <c r="J16" s="25" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="17" s="48">
-      <c r="A17" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
-        <is>
-          <t>点击</t>
-        </is>
-      </c>
-      <c r="C17" s="15" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="D17" s="7" t="inlineStr">
-        <is>
-          <t>xpath</t>
-        </is>
-      </c>
-      <c r="E17" s="6" t="inlineStr">
-        <is>
-          <t>//body[@class="nui-scroll"]</t>
-        </is>
-      </c>
-      <c r="F17" s="7" t="n"/>
-      <c r="G17" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:44:06</t>
-        </is>
-      </c>
-      <c r="H17" s="49" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="I17" s="26" t="inlineStr"/>
-      <c r="J17" s="25" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="18" s="48">
-      <c r="A18" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
-        <is>
-          <t>输入邮件正文</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>input_string</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>xpath</t>
-        </is>
-      </c>
-      <c r="E18" s="6" t="inlineStr">
-        <is>
-          <t>//body[@class="nui-scroll"]</t>
-        </is>
-      </c>
-      <c r="F18" s="7" t="inlineStr">
-        <is>
-          <t>红鲤鱼与绿鲤鱼</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:44:06</t>
-        </is>
-      </c>
-      <c r="H18" s="49" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="I18" s="26" t="inlineStr"/>
-      <c r="J18" s="25" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="19" s="48">
-      <c r="A19" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t>退出邮件正文的fraem</t>
-        </is>
-      </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>switch_to_default_content</t>
-        </is>
-      </c>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="6" t="n"/>
-      <c r="F19" s="7" t="n"/>
-      <c r="G19" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:44:06</t>
-        </is>
-      </c>
-      <c r="H19" s="49" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="I19" s="7" t="inlineStr"/>
-      <c r="J19" s="25" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="20" s="48">
-      <c r="A20" s="5" t="n"/>
-      <c r="B20" s="6" t="inlineStr">
-        <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="C20" s="6" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="n"/>
-      <c r="E20" s="6" t="n"/>
-      <c r="F20" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G20" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:44:10</t>
-        </is>
-      </c>
-      <c r="H20" s="49" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="I20" s="7" t="inlineStr"/>
-      <c r="J20" s="25" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="21" s="48">
+      <c r="I20" s="8" t="inlineStr"/>
+      <c r="J20" s="23" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="21" s="51">
       <c r="A21" s="5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6" t="inlineStr">
         <is>
-          <t>单击邮件发送按钮</t>
+          <t>断言页面源码是否出现’发送成功‘</t>
         </is>
       </c>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="D21" s="7" t="inlineStr">
-        <is>
-          <t>xpath</t>
-        </is>
-      </c>
-      <c r="E21" s="6" t="inlineStr">
-        <is>
-          <t>//div[@class="nui-toolbar-item"]</t>
-        </is>
-      </c>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:44:10</t>
-        </is>
-      </c>
-      <c r="H21" s="49" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="I21" s="7" t="inlineStr"/>
-      <c r="J21" s="25" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="22" s="48">
-      <c r="A22" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="B22" s="6" t="inlineStr">
-        <is>
-          <t>等待邮件发送成功，返回结果</t>
-        </is>
-      </c>
-      <c r="C22" s="6" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
-      </c>
-      <c r="D22" s="7" t="n"/>
-      <c r="E22" s="6" t="n"/>
-      <c r="F22" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G22" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:44:13</t>
-        </is>
-      </c>
-      <c r="H22" s="49" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="I22" s="7" t="inlineStr"/>
-      <c r="J22" s="25" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="23" s="48">
-      <c r="A23" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="B23" s="6" t="inlineStr">
-        <is>
-          <t>断言页面源码是否出现’发送成功‘</t>
-        </is>
-      </c>
-      <c r="C23" s="6" t="inlineStr">
-        <is>
           <t>assert_string_in_pagesource</t>
         </is>
       </c>
-      <c r="D23" s="7" t="n"/>
-      <c r="E23" s="6" t="n"/>
-      <c r="F23" s="7" t="inlineStr">
+      <c r="D21" s="8" t="n"/>
+      <c r="E21" s="6" t="n"/>
+      <c r="F21" s="8" t="inlineStr">
         <is>
           <t>发送成功</t>
         </is>
       </c>
-      <c r="G23" s="7" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:44:14</t>
-        </is>
-      </c>
-      <c r="H23" s="50" t="inlineStr">
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:10:13</t>
+        </is>
+      </c>
+      <c r="H21" s="54" t="inlineStr">
         <is>
           <t>faile</t>
         </is>
       </c>
-      <c r="I23" s="7" t="inlineStr">
+      <c r="I21" s="8" t="inlineStr">
         <is>
           <t>Traceback (most recent call last):
   File "G:\KeyWordFromeWork\testScripts\TestSendMailWithAttachment.py", line 296, in TestSendMailWithAttachment
@@ -3090,74 +3245,76 @@
 </t>
         </is>
       </c>
-      <c r="J23" s="25" t="inlineStr">
-        <is>
-          <t>G:\KeyWordFromeWork\exceptionpicutres\2019-4-22\11-44-13-738764.Png</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="24" s="48">
-      <c r="A24" s="5" t="n"/>
-      <c r="B24" s="17" t="inlineStr">
+      <c r="J21" s="23" t="inlineStr">
+        <is>
+          <t>G:\KeyWordFromeWork\exceptionpicutres\2019-4-23\09-10-12-902117.Png</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="22" s="51">
+      <c r="A22" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="inlineStr">
         <is>
           <t>休息</t>
         </is>
       </c>
-      <c r="C24" s="17" t="inlineStr">
+      <c r="C22" s="16" t="inlineStr">
         <is>
           <t>sleep</t>
         </is>
       </c>
-      <c r="D24" s="18" t="n"/>
-      <c r="E24" s="17" t="n"/>
-      <c r="F24" s="18" t="n">
+      <c r="D22" s="17" t="n"/>
+      <c r="E22" s="16" t="n"/>
+      <c r="F22" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="G24" s="18" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:44:17</t>
-        </is>
-      </c>
-      <c r="H24" s="51" t="inlineStr">
+      <c r="G22" s="17" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:10:16</t>
+        </is>
+      </c>
+      <c r="H22" s="55" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I24" s="18" t="inlineStr"/>
-      <c r="J24" s="27" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="30" r="25" s="48">
-      <c r="A25" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="B25" s="20" t="inlineStr">
+      <c r="I22" s="17" t="inlineStr"/>
+      <c r="J22" s="25" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="30" r="23" s="51">
+      <c r="A23" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="inlineStr">
         <is>
           <t>关闭浏览器</t>
         </is>
       </c>
-      <c r="C25" s="20" t="inlineStr">
+      <c r="C23" s="19" t="inlineStr">
         <is>
           <t>close_browser</t>
         </is>
       </c>
-      <c r="D25" s="21" t="n"/>
-      <c r="E25" s="20" t="n"/>
-      <c r="F25" s="21" t="n"/>
-      <c r="G25" s="21" t="inlineStr">
-        <is>
-          <t>2019-04-22 11:44:20</t>
-        </is>
-      </c>
-      <c r="H25" s="52" t="inlineStr">
+      <c r="D23" s="20" t="n"/>
+      <c r="E23" s="19" t="n"/>
+      <c r="F23" s="20" t="n"/>
+      <c r="G23" s="20" t="inlineStr">
+        <is>
+          <t>2019-04-23 09:10:19</t>
+        </is>
+      </c>
+      <c r="H23" s="56" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I25" s="21" t="inlineStr"/>
-      <c r="J25" s="28" t="inlineStr"/>
-    </row>
-    <row customHeight="1" ht="15" r="26" s="48"/>
-    <row customHeight="1" ht="15" r="30" s="48"/>
+      <c r="I23" s="20" t="inlineStr"/>
+      <c r="J23" s="26" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="15" r="24" s="51"/>
+    <row customHeight="1" ht="15" r="28" s="51"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
